--- a/Selectors.xlsx
+++ b/Selectors.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\TAU\Automation\BrowserAutomationJavascript\BrowserAutomationUsingJavascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA3E297-C482-4D1C-8431-5BF281967A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FCB075-03E7-4E85-90F4-FD871934DBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="8" windowWidth="10673" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Selectors" sheetId="1" r:id="rId1"/>
+    <sheet name="browserAutomationCode" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>Element name</t>
   </si>
@@ -205,6 +206,35 @@
   </si>
   <si>
     <t>To find destroy button anywhere under the todo list. Use  space to find item anywhere uderneath and '&gt;' to find specifically under a tag</t>
+  </si>
+  <si>
+    <t>.toggle</t>
+  </si>
+  <si>
+    <t>To find toggle/checkbox button for all items in the list.</t>
+  </si>
+  <si>
+    <t>Toggle button for all  items</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Code Useage</t>
+  </si>
+  <si>
+    <t>To clear local storage</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>localStorage.clear()</t>
+  </si>
+  <si>
+    <t>Run this in console to clear storage to set enviornment before running script.
+Rehresh page after running it and all todo items in list will disappear.
+Also you will have to run snippet code again before calling them in console after clearing storage.</t>
   </si>
 </sst>
 </file>
@@ -248,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,11 +575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -899,6 +932,65 @@
         <v>16</v>
       </c>
     </row>
+    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9C488E-5220-489F-A219-C4E4D8D7B918}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="35.1328125" customWidth="1"/>
+    <col min="2" max="2" width="60.59765625" customWidth="1"/>
+    <col min="3" max="3" width="56.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
